--- a/Finance/missingSock_costs.xlsx
+++ b/Finance/missingSock_costs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\DuDev_MissingSock\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\DuDevOps_MissingSock\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5F1E8-DE03-4481-BEB3-887897987FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E0F33-1E8C-4126-9C58-F2F51BAE1764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="825" windowWidth="17010" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Missing Sock </t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Hosting</t>
+  </si>
+  <si>
+    <t>Testers</t>
+  </si>
+  <si>
+    <t>Graphic designer</t>
+  </si>
+  <si>
+    <t>Web frontend</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +412,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
